--- a/biology/Biochimie/Répétitions_en_tandem/Répétitions_en_tandem.xlsx
+++ b/biology/Biochimie/Répétitions_en_tandem/Répétitions_en_tandem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9p%C3%A9titions_en_tandem</t>
+          <t>Répétitions_en_tandem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En biochimie, les répétitions en tandem sont l'association, dans une protéine, d'au moins deux occurrences de motifs séquentiels ou de motifs structuraux semblables. Ces redondances sont générées par des duplications internes dans les séquences génomiques codantes et non codantes. La nature des unités ainsi répétées en tandem peut être extrêmement diverse, allant de la répétition d'un seul résidu d'acide aminé à la répétition de domaines de plus d'une centaine de résidus[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En biochimie, les répétitions en tandem sont l'association, dans une protéine, d'au moins deux occurrences de motifs séquentiels ou de motifs structuraux semblables. Ces redondances sont générées par des duplications internes dans les séquences génomiques codantes et non codantes. La nature des unités ainsi répétées en tandem peut être extrêmement diverse, allant de la répétition d'un seul résidu d'acide aminé à la répétition de domaines de plus d'une centaine de résidus,.
 			Représentation schématique d'une séquence protéique de répétitions en tandem.
-Les répétitions en tandem sont omniprésentes dans les protéomes et se retrouvent dans au moins 14 % de toutes les protéines[3]. On les retrouve notamment dans près du tiers des protéines humaines et la moitié des protéines de Plasmodium falciparum et de Dictyostelium discoideum[3],[4]. Les répétitions en tandem d'unités courtes sont les plus fréquentes, notamment les répétitions d'un même résidu[3].
-Environ la moitié des répétitions en tandem sont des régions ayant une conformation intrinsèquement désordonnée et naturellement dépliée[5],[6],[7], tandis que l'autre moitié présente une structure tridimensionnelle stable ayant une grande variété de formes et de fonctions[8],[9].
-Les structures des répétitions en tandem peuvent être rangées dans cinq classes en fonction de la longueur des unités répétées[8] :
+Les répétitions en tandem sont omniprésentes dans les protéomes et se retrouvent dans au moins 14 % de toutes les protéines. On les retrouve notamment dans près du tiers des protéines humaines et la moitié des protéines de Plasmodium falciparum et de Dictyostelium discoideum,. Les répétitions en tandem d'unités courtes sont les plus fréquentes, notamment les répétitions d'un même résidu.
+Environ la moitié des répétitions en tandem sont des régions ayant une conformation intrinsèquement désordonnée et naturellement dépliée tandis que l'autre moitié présente une structure tridimensionnelle stable ayant une grande variété de formes et de fonctions,.
+Les structures des répétitions en tandem peuvent être rangées dans cinq classes en fonction de la longueur des unités répétées :
 agrégats cristallins formés par des répétitions d'unités d'un ou deux résidus, typiques de régions de faible complexité ;
 structures fibreuses stabilisées par des interactions inter-chaînes formées par des répétitions d'unités de trois à sept résidus ;
 structures linéaires formées de répétitions d'unités de 5 à 40 résidus prédominantes dans les domaines en solénoïde ;
